--- a/Literature/Vulnerabilities/Android Vulnerabilities.xlsx
+++ b/Literature/Vulnerabilities/Android Vulnerabilities.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -531,12 +531,12 @@
   <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
